--- a/Plan du site.xlsx
+++ b/Plan du site.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$C$2:$C$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$C$6:$C$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>Site</t>
   </si>
@@ -44,9 +44,6 @@
   <si>
     <t>Données cercles 
 connecté</t>
-  </si>
-  <si>
-    <t>données membres</t>
   </si>
   <si>
     <t>mes cercles</t>
@@ -205,6 +202,43 @@
   <si>
     <t>données 
 cercles</t>
+  </si>
+  <si>
+    <t>s'inscrire</t>
+  </si>
+  <si>
+    <t>s'identifier</t>
+  </si>
+  <si>
+    <t>déconnection</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>désinscription</t>
+  </si>
+  <si>
+    <t>pseudo/mail/mdp</t>
+  </si>
+  <si>
+    <t>pseudo/mdp</t>
+  </si>
+  <si>
+    <t>bouton supprimer le compte</t>
+  </si>
+  <si>
+    <t>message de confirmation</t>
+  </si>
+  <si>
+    <t>données 
+membres</t>
+  </si>
+  <si>
+    <t>feuille de style</t>
   </si>
 </sst>
 </file>
@@ -228,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -259,45 +293,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -412,11 +407,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -425,94 +475,160 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -520,13 +636,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,14 +666,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -593,12 +702,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -606,13 +712,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,7 +749,31 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -944,642 +1067,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" collapsed="1" thickBot="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" collapsed="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="H22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f>E9</f>
+        <v>rechercher un cercle</v>
+      </c>
+      <c r="F26" s="12">
+        <f>F9</f>
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" collapsed="1" thickBot="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" collapsed="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="15" t="str">
-        <f>E5</f>
-        <v>rechercher un cercle</v>
-      </c>
-      <c r="F22" s="20">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="15" t="str">
-        <f>G5</f>
+      <c r="G26" s="7" t="str">
+        <f>G9</f>
         <v>ok</v>
       </c>
-      <c r="H22" s="15" t="str">
-        <f>H5</f>
+      <c r="H26" s="7" t="str">
+        <f>H9</f>
         <v>ko</v>
       </c>
-      <c r="I22" s="20" t="str">
-        <f t="shared" ref="I22:K22" si="0">I5</f>
+      <c r="I26" s="12" t="str">
+        <f t="shared" ref="I26:K26" si="0">I9</f>
         <v>non</v>
       </c>
-      <c r="J22" s="15" t="str">
+      <c r="J26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>à coder</v>
       </c>
-      <c r="K22" s="15" t="str">
+      <c r="K26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>rechercher un cercle</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16" t="s">
+    <row r="27" spans="1:11" s="1" customFormat="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="J26" s="24"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="16"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C24"/>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G2:I25 I22:K22">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="presque">
+  <conditionalFormatting sqref="I26:K26 G2:I30">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="presque">
       <formula>NOT(ISERROR(SEARCH("presque",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="non">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="non">
       <formula>NOT(ISERROR(SEARCH("non",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"oui"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H25 I22:K22">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="ok">
+  <conditionalFormatting sqref="I26:K26 G2:H30">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="ko">
+      <formula>NOT(ISERROR(SEARCH("ko",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="ok">
       <formula>NOT(ISERROR(SEARCH("ok",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="ko">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F30">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:I5">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="presque">
+      <formula>NOT(ISERROR(SEARCH("presque",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",G2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"oui"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:H5 H2:I2">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ko">
       <formula>NOT(ISERROR(SEARCH("ko",G2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ok">
+      <formula>NOT(ISERROR(SEARCH("ok",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan du site.xlsx
+++ b/Plan du site.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -514,6 +514,33 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -526,6 +553,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -533,55 +572,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -624,120 +624,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1070,7 +956,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1124,19 +1010,19 @@
       <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="36" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
@@ -1146,20 +1032,20 @@
       <c r="I2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -1171,59 +1057,59 @@
       <c r="I3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="36" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1251,8 +1137,8 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
       <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
@@ -1276,8 +1162,8 @@
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1301,9 +1187,9 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1328,9 +1214,9 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1353,9 +1239,9 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="8" t="s">
         <v>25</v>
       </c>
@@ -1378,9 +1264,9 @@
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="9" t="s">
         <v>26</v>
       </c>
@@ -1401,11 +1287,11 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="28" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1428,9 +1314,9 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
@@ -1443,9 +1329,9 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1458,9 +1344,9 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="8" t="s">
         <v>40</v>
       </c>
@@ -1473,9 +1359,9 @@
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="8" t="s">
         <v>41</v>
       </c>
@@ -1488,12 +1374,12 @@
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" collapsed="1" thickBot="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="13"/>
@@ -1513,10 +1399,10 @@
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A19" s="24"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="13"/>
       <c r="G19" s="8"/>
       <c r="H19" s="13"/>
@@ -1526,10 +1412,10 @@
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="13"/>
       <c r="G20" s="8"/>
       <c r="H20" s="13"/>
@@ -1539,10 +1425,10 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="14"/>
       <c r="G21" s="9"/>
       <c r="H21" s="14"/>
@@ -1552,10 +1438,10 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" collapsed="1">
       <c r="A22" s="24"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1581,8 +1467,8 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
       <c r="A23" s="24"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
@@ -1604,8 +1490,8 @@
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
       <c r="A24" s="24"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1627,8 +1513,8 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="24"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1650,8 +1536,8 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="24"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -1688,8 +1574,8 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
       <c r="A27" s="24"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="8" t="s">
         <v>12</v>
       </c>
@@ -1713,8 +1599,8 @@
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A28" s="24"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
@@ -1736,8 +1622,8 @@
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="30.75" thickBot="1">
       <c r="A29" s="24"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1761,10 +1647,10 @@
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A30" s="25"/>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1784,7 +1670,7 @@
       <c r="J31" s="16"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="28"/>
+      <c r="C33" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Plan du site.xlsx
+++ b/Plan du site.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Site</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>emplacement</t>
   </si>
   <si>
     <t>vignettes des cercles</t>
@@ -239,6 +236,21 @@
   </si>
   <si>
     <t>feuille de style</t>
+  </si>
+  <si>
+    <t>vie pratique</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>famille / enfants</t>
+  </si>
+  <si>
+    <t>loisirs</t>
+  </si>
+  <si>
+    <t>ou ?</t>
   </si>
 </sst>
 </file>
@@ -466,72 +478,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -541,15 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -571,11 +523,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,743 +959,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="15.75" collapsed="1" thickBot="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" collapsed="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="str">
+      <c r="E27" s="22" t="str">
         <f>E9</f>
         <v>rechercher un cercle</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="23">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="G26" s="7" t="str">
+      <c r="G27" s="22" t="str">
         <f>G9</f>
         <v>ok</v>
       </c>
-      <c r="H26" s="7" t="str">
+      <c r="H27" s="22" t="str">
         <f>H9</f>
         <v>ko</v>
       </c>
-      <c r="I26" s="12" t="str">
-        <f t="shared" ref="I26:K26" si="0">I9</f>
+      <c r="I27" s="23" t="str">
+        <f t="shared" ref="I27:K27" si="0">I9</f>
         <v>non</v>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="J27" s="22" t="str">
         <f t="shared" si="0"/>
         <v>à coder</v>
       </c>
-      <c r="K26" s="7" t="str">
+      <c r="K27" s="22" t="str">
         <f t="shared" si="0"/>
         <v>rechercher un cercle</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="8" t="s">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="22" t="s">
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="J31" s="16"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="17"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="34" spans="3:3" ht="30" customHeight="1">
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:A30"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A31"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D18:D22"/>
     <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B2:B22"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I26:K26 G2:I30">
+  <conditionalFormatting sqref="I27:K27 G2:I31">
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="presque">
       <formula>NOT(ISERROR(SEARCH("presque",G2)))</formula>
     </cfRule>
@@ -1700,7 +1752,7 @@
       <formula>"oui"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:K26 G2:H30">
+  <conditionalFormatting sqref="I27:K27 H2:I2 G2:H31">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="ko">
       <formula>NOT(ISERROR(SEARCH("ko",G2)))</formula>
     </cfRule>
@@ -1708,32 +1760,14 @@
       <formula>NOT(ISERROR(SEARCH("ok",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F30">
+  <conditionalFormatting sqref="F6:F31">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I5">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="presque">
-      <formula>NOT(ISERROR(SEARCH("presque",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="non">
-      <formula>NOT(ISERROR(SEARCH("non",G2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"oui"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H5 H2:I2">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ko">
-      <formula>NOT(ISERROR(SEARCH("ko",G2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ok">
-      <formula>NOT(ISERROR(SEARCH("ok",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
